--- a/podshibakin/13.10.23.xlsx
+++ b/podshibakin/13.10.23.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k221-19\Documents\41МР\попов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B80F359-3E29-4529-A1AF-5C83E52B9EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F020FE85-DBD8-438B-AFF3-8D906F20344E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0F40E1F-3258-4D2C-BA27-F7B6E07FAFCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C0F40E1F-3258-4D2C-BA27-F7B6E07FAFCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>x</t>
   </si>
@@ -68,12 +92,21 @@
   <si>
     <t>∑</t>
   </si>
+  <si>
+    <t>a=</t>
+  </si>
+  <si>
+    <t>b=</t>
+  </si>
+  <si>
+    <t>c=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +131,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +174,19 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,21 +209,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="20% — акцент1" xfId="6" builtinId="30"/>
+    <cellStyle name="Итог" xfId="5" builtinId="25"/>
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Примечание" xfId="4" builtinId="10"/>
+    <cellStyle name="Связанная ячейка" xfId="3" builtinId="24"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,10 +586,885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55F1E7D-4E09-4F7A-BA63-A40F81F4CAC4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>-2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-4.3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-5.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B1</f>
+        <v>-2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6^2</f>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6^3</f>
+        <v>-8</v>
+      </c>
+      <c r="E6" s="1">
+        <f>B6^4</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B2</f>
+        <v>-4.3</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B6*F6</f>
+        <v>8.6</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*C6</f>
+        <v>-17.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f>C1</f>
+        <v>-1</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C11" si="0">B7^2</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D11" si="1">B7^3</f>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E11" si="2">B7^4</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f>C2</f>
+        <v>-5.2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G11" si="3">B7*F7</f>
+        <v>5.2</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H11" si="4">F7*C7</f>
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" ref="A8:A11" si="5">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f>D1</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D2</f>
+        <v>-4</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f>E1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f>E2</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>F1</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F2</f>
+        <v>4.2</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f>G1</f>
+        <v>-3</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>-27</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="1">
+        <f>G2</f>
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B6:B11)</f>
+        <v>-3</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:H12" si="6">SUM(C6:C11)</f>
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="6"/>
+        <v>-27</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="6"/>
+        <v>115</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="6"/>
+        <v>-8.9999999999999982</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="6"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="6"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="6">
+        <f>E12</f>
+        <v>115</v>
+      </c>
+      <c r="J14" s="6">
+        <f>D12</f>
+        <v>-27</v>
+      </c>
+      <c r="K14" s="6">
+        <f>C12</f>
+        <v>19</v>
+      </c>
+      <c r="O14" s="9">
+        <f>H12</f>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="6">
+        <f>D12</f>
+        <v>-27</v>
+      </c>
+      <c r="J15" s="6">
+        <f>C12</f>
+        <v>19</v>
+      </c>
+      <c r="K15" s="6">
+        <f>B12</f>
+        <v>-3</v>
+      </c>
+      <c r="O15" s="9">
+        <f>G12</f>
+        <v>16.900000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="6">
+        <f>C12</f>
+        <v>19</v>
+      </c>
+      <c r="J16" s="6">
+        <f>B12</f>
+        <v>-3</v>
+      </c>
+      <c r="K16" s="6">
+        <f>A11</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="9">
+        <f>F12</f>
+        <v>-8.9999999999999982</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="7" cm="1">
+        <f t="array" ref="I19:K21">MINVERSE(I14:K16)</f>
+        <v>2.6785714285714281E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2.6785714285714281E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
+        <v>2.6785714285714291E-2</v>
+      </c>
+      <c r="J20" s="7">
+        <v>8.3928571428571422E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-4.2857142857142871E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="7">
+        <v>-7.1428571428571411E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>-4.2857142857142844E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.37142857142857139</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="8" cm="1">
+        <f t="array" ref="N23:N25">MMULT(_xlfn.ANCHORARRAY(I19),O14:O16)</f>
+        <v>1.2535714285714283</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1.9621428571428572</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="8">
+        <v>-4.4885714285714275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28B4CBE-4DB4-4582-A021-1966B81D7BD2}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10">
+        <v>-3</v>
+      </c>
+      <c r="C1" s="10">
+        <v>-2</v>
+      </c>
+      <c r="D1" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="10">
+        <v>0</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2</v>
+      </c>
+      <c r="G1" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="F2" s="10">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B1</f>
+        <v>-3</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6^2</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B6^3</f>
+        <v>-27</v>
+      </c>
+      <c r="E6" s="1">
+        <f>B6^4</f>
+        <v>81</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B2</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B6*F6</f>
+        <v>-27</v>
+      </c>
+      <c r="H6" s="1">
+        <f>F6*C6</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f>C1</f>
+        <v>-2</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C11" si="0">B7^2</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D11" si="1">B7^3</f>
+        <v>-8</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E11" si="2">B7^4</f>
+        <v>16</v>
+      </c>
+      <c r="F7" s="1">
+        <f>C2</f>
+        <v>3.5</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G11" si="3">B7*F7</f>
+        <v>-7</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7:H11" si="4">F7*C7</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" ref="A8:A11" si="5">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f>D1</f>
+        <v>-1</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <f>D2</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.8</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f>E1</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <f>E2</f>
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>F1</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <f>F2</f>
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f>G1</f>
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="1">
+        <f>G2</f>
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="4"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B6:B11)</f>
+        <v>-1</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:H12" si="6">SUM(C6:C11)</f>
+        <v>27</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="6"/>
+        <v>57.7</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="6"/>
+        <v>78.2</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="6"/>
+        <v>402.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="6">
+        <f>E12</f>
+        <v>195</v>
+      </c>
+      <c r="J14" s="6">
+        <f>D12</f>
+        <v>-1</v>
+      </c>
+      <c r="K14" s="6">
+        <f>C12</f>
+        <v>27</v>
+      </c>
+      <c r="O14" s="9">
+        <f>H12</f>
+        <v>402.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="6">
+        <f>D12</f>
+        <v>-1</v>
+      </c>
+      <c r="J15" s="6">
+        <f>C12</f>
+        <v>27</v>
+      </c>
+      <c r="K15" s="6">
+        <f>B12</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="9">
+        <f>G12</f>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="6">
+        <f>C12</f>
+        <v>27</v>
+      </c>
+      <c r="J16" s="6">
+        <f>B12</f>
+        <v>-1</v>
+      </c>
+      <c r="K16" s="6">
+        <f>A11</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="9">
+        <f>F12</f>
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="7" cm="1">
+        <f t="array" ref="I19:K21">MINVERSE(I14:K16)</f>
+        <v>1.3690476190476194E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>-1.7857142857142863E-3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-6.1904761904761907E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
+        <v>-1.7857142857142861E-3</v>
+      </c>
+      <c r="J20" s="7">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.4285714285714289E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="7">
+        <v>-6.1904761904761914E-2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1.4285714285714289E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.44761904761904764</v>
+      </c>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="8" cm="1">
+        <f t="array" ref="N23:N25">MMULT(_xlfn.ANCHORARRAY(I19),O14:O16)</f>
+        <v>1.8029761904761914</v>
+      </c>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="8">
+        <v>3.0375000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2.0095238095238095</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C024851-BEA7-4020-BB20-2110295CC1C0}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,46 +1473,52 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>-2</v>
-      </c>
-      <c r="C1" s="2">
+      <c r="B1" s="10">
+        <v>-3</v>
+      </c>
+      <c r="C1" s="10">
         <v>-1</v>
       </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2">
+      <c r="D1" s="10">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10">
+        <v>1</v>
+      </c>
+      <c r="F1" s="10">
         <v>2</v>
       </c>
-      <c r="G1" s="2">
-        <v>-3</v>
+      <c r="G1" s="10">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>-4.3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-5.2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>-4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="B2" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6</v>
+      </c>
+      <c r="D2" s="10">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="F2" s="10">
         <v>1.4</v>
+      </c>
+      <c r="G2" s="10">
+        <v>-3.5</v>
+      </c>
+      <c r="H2" s="10">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,56 +1532,35 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="1">
         <f>B1</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C6" s="1">
         <f>B6^2</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <f>B6^3</f>
-        <v>-8</v>
+        <f>B2</f>
+        <v>11.5</v>
       </c>
       <c r="E6" s="1">
-        <f>B6^4</f>
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <f>B2</f>
-        <v>-4.3</v>
-      </c>
-      <c r="G6" s="1">
-        <f>B6*F6</f>
-        <v>8.6</v>
-      </c>
-      <c r="H6" s="1">
-        <f>F6*C6</f>
-        <v>-17.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <f>D6*B6</f>
+        <v>-34.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <f>A6+1</f>
         <v>2</v>
       </c>
@@ -590,33 +1569,21 @@
         <v>-1</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C11" si="0">B7^2</f>
+        <f t="shared" ref="C7:C12" si="0">B7^2</f>
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D11" si="1">B7^3</f>
-        <v>-1</v>
+        <f>C2</f>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E11" si="2">B7^4</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <f>C2</f>
-        <v>-5.2</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7:G11" si="3">B7*F7</f>
-        <v>5.2</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7:H11" si="4">F7*C7</f>
-        <v>-5.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f t="shared" ref="A8:A29" si="5">A7+1</f>
+        <f t="shared" ref="E7:E12" si="1">D7*B7</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <f t="shared" ref="A8:A12" si="2">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="1">
@@ -628,29 +1595,17 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
+        <f>D2</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="1">
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <f>D2</f>
-        <v>-4</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B9" s="1">
@@ -662,29 +1617,17 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
+        <f>E2</f>
+        <v>3.2</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E2</f>
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="4"/>
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B10" s="1">
@@ -696,95 +1639,139 @@
         <v>4</v>
       </c>
       <c r="D10" s="1">
+        <f>F2</f>
+        <v>1.4</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F10" s="1">
-        <f>F2</f>
-        <v>4.2</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="3"/>
-        <v>8.4</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="4"/>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B11" s="1">
         <f>G1</f>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
+        <f>G2</f>
+        <v>-3.5</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>-27</v>
-      </c>
-      <c r="E11" s="1">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="F11" s="1">
-        <f>G2</f>
-        <v>1.4</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="3"/>
-        <v>-4.1999999999999993</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="4"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <f>H1</f>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <f>H2</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f>SUM(B6:B11)</f>
-        <v>-3</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" ref="C12:H12" si="6">SUM(C6:C11)</f>
-        <v>19</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="6"/>
-        <v>-27</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="6"/>
-        <v>115</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="6"/>
-        <v>-8.9999999999999982</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="6"/>
-        <v>16.900000000000002</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="6"/>
-        <v>5.9</v>
+      <c r="B13" s="3">
+        <f>SUM(B6:B12)</f>
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C6:C12)</f>
+        <v>56</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(D6:D12)</f>
+        <v>30.699999999999996</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM(E6:E12)</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <f>C13</f>
+        <v>56</v>
+      </c>
+      <c r="B16" s="6">
+        <f>B13</f>
+        <v>8</v>
+      </c>
+      <c r="D16" s="7" cm="1">
+        <f t="array" ref="D16:E17">MINVERSE(A16:B17)</f>
+        <v>2.1341463414634144E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-2.4390243902439022E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <f>B13</f>
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <f>A12</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-2.4390243902439022E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.17073170731707316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <f>E13</f>
+        <v>-23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" cm="1">
+        <f t="array" ref="E21:E22">MMULT(_xlfn.ANCHORARRAY(D16),B21:B22)</f>
+        <v>-1.2396341463414631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
+        <f>D13</f>
+        <v>30.699999999999996</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5.8024390243902424</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>